--- a/DetailPlan.xlsx
+++ b/DetailPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\HCMUTE\2020_2021_1st\_final_project\LibraryManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6892D58-986F-4A61-AFBE-3DB87B53826F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375361DB-FBBE-4198-A1FD-4F71FCEEE142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6388F657-0B97-41EB-8992-70EB762BC4BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6388F657-0B97-41EB-8992-70EB762BC4BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -354,6 +354,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -395,6 +401,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368A29CB-831F-411D-B769-6FB3CFC0BB4D}">
   <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -747,7 +756,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -762,12 +771,12 @@
       <c r="F3" s="12">
         <v>44149</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
@@ -780,10 +789,10 @@
       <c r="F4" s="12">
         <v>44152</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
@@ -796,10 +805,10 @@
       <c r="F5" s="12">
         <v>44155</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
@@ -812,10 +821,10 @@
       <c r="F6" s="12">
         <v>44158</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
@@ -828,11 +837,11 @@
       <c r="F7" s="12">
         <v>44161</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -844,11 +853,11 @@
       <c r="F8" s="12">
         <v>44164</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
@@ -858,11 +867,11 @@
       <c r="F9" s="12">
         <v>44167</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
@@ -872,11 +881,11 @@
       <c r="F10" s="12">
         <v>44149</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
@@ -886,11 +895,11 @@
       <c r="F11" s="12">
         <v>44152</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
@@ -900,11 +909,11 @@
       <c r="F12" s="12">
         <v>44155</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
@@ -914,10 +923,10 @@
       <c r="F13" s="12">
         <v>44158</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="10" t="s">
         <v>4</v>
       </c>
@@ -930,10 +939,10 @@
       <c r="F14" s="12">
         <v>44161</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="10" t="s">
         <v>2</v>
       </c>
@@ -946,10 +955,10 @@
       <c r="F15" s="12">
         <v>44164</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
@@ -962,10 +971,10 @@
       <c r="F16" s="12">
         <v>44167</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -980,56 +989,56 @@
       <c r="F17" s="12">
         <v>44151</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="24" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="12">
         <v>44154</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="12">
         <v>44157</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="12">
         <v>44160</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="10" t="s">
         <v>4</v>
       </c>
@@ -1042,13 +1051,13 @@
       <c r="F21" s="12">
         <v>44163</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1060,11 +1069,11 @@
       <c r="F22" s="12">
         <v>44166</v>
       </c>
-      <c r="G22" s="18"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1074,11 +1083,11 @@
       <c r="F23" s="12">
         <v>44169</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="3" t="s">
         <v>13</v>
       </c>
@@ -1088,13 +1097,13 @@
       <c r="F24" s="12">
         <v>44151</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
@@ -1104,11 +1113,11 @@
       <c r="F25" s="12">
         <v>44154</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1118,11 +1127,11 @@
       <c r="F26" s="12">
         <v>44157</v>
       </c>
-      <c r="G26" s="18"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
@@ -1132,66 +1141,66 @@
       <c r="F27" s="12">
         <v>44160</v>
       </c>
-      <c r="G27" s="18"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="26">
         <v>44163</v>
       </c>
-      <c r="G28" s="18"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="22"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="18"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="10" t="s">
         <v>2</v>
       </c>
@@ -1204,10 +1213,10 @@
       <c r="F33" s="12">
         <v>44166</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="10" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1229,7 @@
       <c r="F34" s="12">
         <v>44169</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1244,12 +1253,362 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD26329-829B-4E26-851E-D7214D04B357}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="13" style="11" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="13" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="30">
+        <f t="shared" ref="E3:E20" si="0">F3+2</f>
+        <v>44153</v>
+      </c>
+      <c r="F3" s="12">
+        <v>44151</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="30">
+        <f t="shared" si="0"/>
+        <v>44156</v>
+      </c>
+      <c r="F4" s="12">
+        <v>44154</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="30">
+        <f t="shared" si="0"/>
+        <v>44159</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44157</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="30">
+        <f t="shared" si="0"/>
+        <v>44162</v>
+      </c>
+      <c r="F6" s="12">
+        <v>44160</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="30">
+        <f t="shared" si="0"/>
+        <v>44165</v>
+      </c>
+      <c r="F7" s="12">
+        <v>44163</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="30">
+        <f t="shared" si="0"/>
+        <v>44168</v>
+      </c>
+      <c r="F8" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="30">
+        <f t="shared" si="0"/>
+        <v>44171</v>
+      </c>
+      <c r="F9" s="12">
+        <v>44169</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="30">
+        <f t="shared" si="0"/>
+        <v>44153</v>
+      </c>
+      <c r="F10" s="12">
+        <v>44151</v>
+      </c>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="30">
+        <f t="shared" si="0"/>
+        <v>44156</v>
+      </c>
+      <c r="F11" s="12">
+        <v>44154</v>
+      </c>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="30">
+        <f t="shared" si="0"/>
+        <v>44159</v>
+      </c>
+      <c r="F12" s="12">
+        <v>44157</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="30">
+        <f t="shared" si="0"/>
+        <v>44162</v>
+      </c>
+      <c r="F13" s="12">
+        <v>44160</v>
+      </c>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="30">
+        <f t="shared" si="0"/>
+        <v>44165</v>
+      </c>
+      <c r="F14" s="26">
+        <v>44163</v>
+      </c>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" si="0"/>
+        <v>44168</v>
+      </c>
+      <c r="F19" s="12">
+        <v>44166</v>
+      </c>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="30">
+        <f t="shared" si="0"/>
+        <v>44171</v>
+      </c>
+      <c r="F20" s="12">
+        <v>44169</v>
+      </c>
+      <c r="G20" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G3:G11"/>
+    <mergeCell ref="G12:G20"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B8:B13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DetailPlan.xlsx
+++ b/DetailPlan.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\HCMUTE\2020_2021_1st\_final_project\LibraryManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375361DB-FBBE-4198-A1FD-4F71FCEEE142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C84BABC-DCBD-4DB3-90FE-B090571D4251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6388F657-0B97-41EB-8992-70EB762BC4BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Code" sheetId="1" r:id="rId1"/>
-    <sheet name="Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Backlog" sheetId="3" r:id="rId1"/>
+    <sheet name="Code" sheetId="1" r:id="rId2"/>
+    <sheet name="Test" sheetId="2" r:id="rId3"/>
+    <sheet name=" " sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
   <si>
     <t>Task</t>
   </si>
@@ -185,16 +187,149 @@
   </si>
   <si>
     <t>Model, ViewModel</t>
+  </si>
+  <si>
+    <t>Hoàng, Khánh</t>
+  </si>
+  <si>
+    <t>Sơ đồ phân rã</t>
+  </si>
+  <si>
+    <t>Usecase</t>
+  </si>
+  <si>
+    <t>Bussiness flow</t>
+  </si>
+  <si>
+    <t>Mockup</t>
+  </si>
+  <si>
+    <t>Whiteframe</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Lấy yêu cầu</t>
+  </si>
+  <si>
+    <t>Phân tích yêu cầu</t>
+  </si>
+  <si>
+    <t>Tài liệu hệ thống</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Lấy yêu cầu + phân tích yêu cầu</t>
+  </si>
+  <si>
+    <t>Lên kế hoạch chi tiết</t>
+  </si>
+  <si>
+    <t>Requestment</t>
+  </si>
+  <si>
+    <t>Implement</t>
+  </si>
+  <si>
+    <t>KẾ HOẠCH ĐỒ ÁN</t>
+  </si>
+  <si>
+    <t>Tên dự án:</t>
+  </si>
+  <si>
+    <t>QUẢN LÝ THƯ VIÊN</t>
+  </si>
+  <si>
+    <t>Công nghệ:</t>
+  </si>
+  <si>
+    <t>Source control</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Task manager</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>WPF (.NET Framework)</t>
+  </si>
+  <si>
+    <t>Database:</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>ORM:</t>
+  </si>
+  <si>
+    <t>Entity Framework</t>
+  </si>
+  <si>
+    <t>Design pattern</t>
+  </si>
+  <si>
+    <t>Model - View - ViewModel</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>Visual Studio 2019</t>
+  </si>
+  <si>
+    <t>VAI TRÒ</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Fix lỗi</t>
+  </si>
+  <si>
+    <t>Phúc, Nam</t>
+  </si>
+  <si>
+    <t>Tất cả</t>
+  </si>
+  <si>
+    <t>KẾ HOẠCH TỔNG QUÁT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +343,23 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +372,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -309,11 +465,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -360,6 +525,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -404,6 +572,68 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,6 +650,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375662</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>125895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>335066</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>206587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE8560E-9318-45D9-890A-7C98998B032D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7412566" y="125895"/>
+          <a:ext cx="7274604" cy="7150727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,11 +997,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D31AEEC-8057-48E5-8EFC-0F600B06EEF6}">
+  <dimension ref="B1:F29"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="33"/>
+    <col min="2" max="2" width="17.5546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" s="52" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="51"/>
+    </row>
+    <row r="2" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" s="52" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="51"/>
+    </row>
+    <row r="12" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="52" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="53"/>
+    </row>
+    <row r="18" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="49">
+        <v>44142</v>
+      </c>
+      <c r="F19" s="49">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="49">
+        <v>44142</v>
+      </c>
+      <c r="F20" s="49">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="44"/>
+      <c r="C21" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="49">
+        <v>44142</v>
+      </c>
+      <c r="F21" s="49">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="44"/>
+      <c r="C22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="49">
+        <v>44142</v>
+      </c>
+      <c r="F22" s="49">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="44"/>
+      <c r="C23" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="49">
+        <v>44142</v>
+      </c>
+      <c r="F23" s="49">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="44"/>
+      <c r="C24" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="49">
+        <v>44142</v>
+      </c>
+      <c r="F24" s="49">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="45"/>
+      <c r="C25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="49">
+        <v>44142</v>
+      </c>
+      <c r="F25" s="49">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="49">
+        <v>44151</v>
+      </c>
+      <c r="F26" s="49">
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="49">
+        <v>44155</v>
+      </c>
+      <c r="F27" s="49">
+        <v>44181</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="49">
+        <v>44160</v>
+      </c>
+      <c r="F28" s="49">
+        <v>44184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="49">
+        <v>44151</v>
+      </c>
+      <c r="F29" s="49">
+        <v>44184</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B18:C18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368A29CB-831F-411D-B769-6FB3CFC0BB4D}">
-  <dimension ref="B2:G34"/>
+  <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -732,12 +1345,12 @@
     <col min="3" max="3" width="13" style="11" customWidth="1"/>
     <col min="4" max="4" width="39.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="58.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="19.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="C2" s="9" t="s">
         <v>33</v>
@@ -748,15 +1361,18 @@
       <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -769,14 +1385,18 @@
         <v>35</v>
       </c>
       <c r="F3" s="12">
-        <v>44149</v>
-      </c>
-      <c r="G3" s="19" t="s">
+        <v>44151</v>
+      </c>
+      <c r="G3" s="16">
+        <f>F3+2</f>
+        <v>44153</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
+    <row r="4" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
       <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
@@ -789,10 +1409,14 @@
       <c r="F4" s="12">
         <v>44152</v>
       </c>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
+      <c r="G4" s="16">
+        <f t="shared" ref="G4:G34" si="0">F4+2</f>
+        <v>44154</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="21"/>
       <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
@@ -805,10 +1429,14 @@
       <c r="F5" s="12">
         <v>44155</v>
       </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
+      <c r="G5" s="16">
+        <f t="shared" si="0"/>
+        <v>44157</v>
+      </c>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
@@ -821,10 +1449,14 @@
       <c r="F6" s="12">
         <v>44158</v>
       </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
+      <c r="G6" s="16">
+        <f t="shared" si="0"/>
+        <v>44160</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="21"/>
       <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
@@ -837,11 +1469,15 @@
       <c r="F7" s="12">
         <v>44161</v>
       </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="16" t="s">
+      <c r="G7" s="16">
+        <f t="shared" si="0"/>
+        <v>44163</v>
+      </c>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21"/>
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -853,11 +1489,15 @@
       <c r="F8" s="12">
         <v>44164</v>
       </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="17"/>
+      <c r="G8" s="16">
+        <f t="shared" si="0"/>
+        <v>44166</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
@@ -867,11 +1507,15 @@
       <c r="F9" s="12">
         <v>44167</v>
       </c>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="17"/>
+      <c r="G9" s="16">
+        <f t="shared" si="0"/>
+        <v>44169</v>
+      </c>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
@@ -881,11 +1525,15 @@
       <c r="F10" s="12">
         <v>44149</v>
       </c>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="17"/>
+      <c r="G10" s="16">
+        <f t="shared" si="0"/>
+        <v>44151</v>
+      </c>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
@@ -895,11 +1543,15 @@
       <c r="F11" s="12">
         <v>44152</v>
       </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="17"/>
+      <c r="G11" s="16">
+        <f t="shared" si="0"/>
+        <v>44154</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
@@ -909,11 +1561,15 @@
       <c r="F12" s="12">
         <v>44155</v>
       </c>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="18"/>
+      <c r="G12" s="16">
+        <f t="shared" si="0"/>
+        <v>44157</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
@@ -923,10 +1579,14 @@
       <c r="F13" s="12">
         <v>44158</v>
       </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
+      <c r="G13" s="16">
+        <f t="shared" si="0"/>
+        <v>44160</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21"/>
       <c r="C14" s="10" t="s">
         <v>4</v>
       </c>
@@ -939,10 +1599,14 @@
       <c r="F14" s="12">
         <v>44161</v>
       </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
+      <c r="G14" s="16">
+        <f t="shared" si="0"/>
+        <v>44163</v>
+      </c>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
       <c r="C15" s="10" t="s">
         <v>2</v>
       </c>
@@ -955,10 +1619,14 @@
       <c r="F15" s="12">
         <v>44164</v>
       </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
+      <c r="G15" s="16">
+        <f t="shared" si="0"/>
+        <v>44166</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
       <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
@@ -971,10 +1639,14 @@
       <c r="F16" s="12">
         <v>44167</v>
       </c>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+      <c r="G16" s="16">
+        <f t="shared" si="0"/>
+        <v>44169</v>
+      </c>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -989,56 +1661,72 @@
       <c r="F17" s="12">
         <v>44151</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="16">
+        <f t="shared" si="0"/>
+        <v>44153</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+    <row r="18" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
       <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="25" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="12">
         <v>44154</v>
       </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
+      <c r="G18" s="16">
+        <f t="shared" si="0"/>
+        <v>44156</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
       <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="12">
         <v>44157</v>
       </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
+      <c r="G19" s="16">
+        <f t="shared" si="0"/>
+        <v>44159</v>
+      </c>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
       <c r="C20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="12">
         <v>44160</v>
       </c>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
+      <c r="G20" s="16">
+        <f t="shared" si="0"/>
+        <v>44162</v>
+      </c>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="18"/>
       <c r="C21" s="10" t="s">
         <v>4</v>
       </c>
@@ -1051,13 +1739,17 @@
       <c r="F21" s="12">
         <v>44163</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="16">
+        <f t="shared" si="0"/>
+        <v>44165</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="16" t="s">
+    <row r="22" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="18"/>
+      <c r="C22" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1069,11 +1761,15 @@
       <c r="F22" s="12">
         <v>44166</v>
       </c>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="G22" s="16">
+        <f t="shared" si="0"/>
+        <v>44168</v>
+      </c>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1083,11 +1779,15 @@
       <c r="F23" s="12">
         <v>44169</v>
       </c>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="G23" s="16">
+        <f t="shared" si="0"/>
+        <v>44171</v>
+      </c>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="3" t="s">
         <v>13</v>
       </c>
@@ -1097,13 +1797,17 @@
       <c r="F24" s="12">
         <v>44151</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="16">
+        <f t="shared" si="0"/>
+        <v>44153</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+    <row r="25" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
@@ -1113,11 +1817,15 @@
       <c r="F25" s="12">
         <v>44154</v>
       </c>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="G25" s="16">
+        <f t="shared" si="0"/>
+        <v>44156</v>
+      </c>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1127,11 +1835,15 @@
       <c r="F26" s="12">
         <v>44157</v>
       </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="G26" s="16">
+        <f t="shared" si="0"/>
+        <v>44159</v>
+      </c>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
@@ -1141,66 +1853,78 @@
       <c r="F27" s="12">
         <v>44160</v>
       </c>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
-      <c r="C28" s="22" t="s">
+      <c r="G27" s="16">
+        <f t="shared" si="0"/>
+        <v>44162</v>
+      </c>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="18"/>
+      <c r="C28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="25" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="27">
         <v>44163</v>
       </c>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="25"/>
+      <c r="G28" s="27">
+        <f t="shared" si="0"/>
+        <v>44165</v>
+      </c>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="18"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="25"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="18"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="25"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="18"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="24"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="18"/>
       <c r="C33" s="10" t="s">
         <v>2</v>
       </c>
@@ -1213,10 +1937,14 @@
       <c r="F33" s="12">
         <v>44166</v>
       </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="18"/>
+      <c r="G33" s="16">
+        <f t="shared" si="0"/>
+        <v>44168</v>
+      </c>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
       <c r="C34" s="10" t="s">
         <v>8</v>
       </c>
@@ -1229,12 +1957,17 @@
       <c r="F34" s="12">
         <v>44169</v>
       </c>
-      <c r="G34" s="21"/>
+      <c r="G34" s="12">
+        <f t="shared" si="0"/>
+        <v>44171</v>
+      </c>
+      <c r="H34" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="G28:G32"/>
     <mergeCell ref="B17:B34"/>
-    <mergeCell ref="G24:G34"/>
+    <mergeCell ref="H24:H34"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="C8:C13"/>
@@ -1242,21 +1975,21 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="D28:D32"/>
     <mergeCell ref="F28:F32"/>
-    <mergeCell ref="G3:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H3:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H21:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD26329-829B-4E26-851E-D7214D04B357}">
-  <dimension ref="B2:G20"/>
+  <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.3"/>
@@ -1267,11 +2000,12 @@
     <col min="4" max="4" width="58.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="13" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="19.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>33</v>
       </c>
@@ -1282,16 +2016,19 @@
         <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
@@ -1301,71 +2038,87 @@
       <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="31">
         <f t="shared" ref="E3:E20" si="0">F3+2</f>
         <v>44153</v>
       </c>
       <c r="F3" s="12">
         <v>44151</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="16">
+        <f>E3+1</f>
+        <v>44154</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="31">
         <f t="shared" si="0"/>
         <v>44156</v>
       </c>
       <c r="F4" s="12">
         <v>44154</v>
       </c>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="16">
+        <f t="shared" ref="G4:G20" si="1">E4+1</f>
+        <v>44157</v>
+      </c>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="30">
+      <c r="D5" s="25"/>
+      <c r="E5" s="31">
         <f t="shared" si="0"/>
         <v>44159</v>
       </c>
       <c r="F5" s="12">
         <v>44157</v>
       </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="16">
+        <f t="shared" si="1"/>
+        <v>44160</v>
+      </c>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="30">
+      <c r="D6" s="25"/>
+      <c r="E6" s="31">
         <f t="shared" si="0"/>
         <v>44162</v>
       </c>
       <c r="F6" s="12">
         <v>44160</v>
       </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="16">
+        <f t="shared" si="1"/>
+        <v>44163</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1375,17 +2128,21 @@
       <c r="D7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="31">
         <f t="shared" si="0"/>
         <v>44165</v>
       </c>
       <c r="F7" s="12">
         <v>44163</v>
       </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="G7" s="16">
+        <f t="shared" si="1"/>
+        <v>44166</v>
+      </c>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1394,174 +2151,218 @@
       <c r="D8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="31">
         <f t="shared" si="0"/>
         <v>44168</v>
       </c>
       <c r="F8" s="12">
         <v>44166</v>
       </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
+      <c r="G8" s="16">
+        <f t="shared" si="1"/>
+        <v>44169</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
       <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="31">
         <f t="shared" si="0"/>
         <v>44171</v>
       </c>
       <c r="F9" s="12">
         <v>44169</v>
       </c>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
+      <c r="G9" s="16">
+        <f t="shared" si="1"/>
+        <v>44172</v>
+      </c>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
       <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="31">
         <f t="shared" si="0"/>
         <v>44153</v>
       </c>
       <c r="F10" s="12">
         <v>44151</v>
       </c>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
+      <c r="G10" s="16">
+        <f t="shared" si="1"/>
+        <v>44154</v>
+      </c>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
       <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="31">
         <f t="shared" si="0"/>
         <v>44156</v>
       </c>
       <c r="F11" s="12">
         <v>44154</v>
       </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+      <c r="G11" s="16">
+        <f t="shared" si="1"/>
+        <v>44157</v>
+      </c>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="31">
         <f t="shared" si="0"/>
         <v>44159</v>
       </c>
       <c r="F12" s="12">
         <v>44157</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="16">
+        <f t="shared" si="1"/>
+        <v>44160</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
+    <row r="13" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="31">
         <f t="shared" si="0"/>
         <v>44162</v>
       </c>
       <c r="F13" s="12">
         <v>44160</v>
       </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+      <c r="G13" s="16">
+        <f t="shared" si="1"/>
+        <v>44163</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="31">
         <f t="shared" si="0"/>
         <v>44165</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="27">
         <v>44163</v>
       </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="16">
+        <f t="shared" si="1"/>
+        <v>44166</v>
+      </c>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="28"/>
+      <c r="G15" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="28"/>
+      <c r="G16" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="23"/>
-      <c r="C17" s="25"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="24"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="29"/>
+      <c r="G18" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1571,16 +2372,20 @@
       <c r="D19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="31">
         <f t="shared" si="0"/>
         <v>44168</v>
       </c>
       <c r="F19" s="12">
         <v>44166</v>
       </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="16">
+        <f t="shared" si="1"/>
+        <v>44169</v>
+      </c>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
@@ -1590,25 +2395,82 @@
       <c r="D20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="31">
         <f t="shared" si="0"/>
         <v>44171</v>
       </c>
       <c r="F20" s="12">
         <v>44169</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="12">
+        <f t="shared" si="1"/>
+        <v>44172</v>
+      </c>
+      <c r="H20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G3:G11"/>
-    <mergeCell ref="G12:G20"/>
+    <mergeCell ref="H3:H11"/>
+    <mergeCell ref="H12:H20"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="B8:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EBF988-2D27-412C-819A-957BB1F461A5}">
+  <dimension ref="B4:B19"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>